--- a/docs/画面項目定義書/image_management/mo_image_edit.xlsx
+++ b/docs/画面項目定義書/image_management/mo_image_edit.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\image_management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CC6F9-7EDF-4FBA-BA62-E62202B9AACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート１" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,150 +27,153 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
-    <t xml:space="preserve">日本工学院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイル名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージ編集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_image_edit.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">形式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入力必須</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目チェック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ページタイトル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージ詳細</t>
-  </si>
-  <si>
-    <t xml:space="preserve">編集ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">編集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・イメージ名・サイズ・説明を編集可能になる
+    <t>日本工学院</t>
+  </si>
+  <si>
+    <t>画面名</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>イメージ編集</t>
+  </si>
+  <si>
+    <t>mo_image_edit.html</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>項目名</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>入力必須</t>
+  </si>
+  <si>
+    <t>初期表示</t>
+  </si>
+  <si>
+    <t>項目チェック</t>
+  </si>
+  <si>
+    <t>処理</t>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>編集ボタン</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>編集</t>
+  </si>
+  <si>
+    <t>・イメージ名・サイズ・説明を編集可能になる
 ・保存ボタンを表示する</t>
   </si>
   <si>
-    <t xml:space="preserve">保存ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">編集内容を確定し、編集モードを終了する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">×ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">×</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージダッシュボードへ遷移する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テキストボックスタイトル「イメージ名」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テキストボックス「イメージ名」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テキストボックス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージエンティティより</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・イメージオブジェクトを取得して表示
+    <t>保存ボタン</t>
+  </si>
+  <si>
+    <t>非表示</t>
+  </si>
+  <si>
+    <t>編集内容を確定し、編集モードを終了する</t>
+  </si>
+  <si>
+    <t>×ボタン</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「イメージ名」</t>
+  </si>
+  <si>
+    <t>イメージ名</t>
+  </si>
+  <si>
+    <t>テキストボックス「イメージ名」</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>イメージエンティティより</t>
+  </si>
+  <si>
+    <t>・イメージオブジェクトを取得して表示
 ・編集ボタン押下後、入力が可能になり、
 表示が更新される</t>
   </si>
   <si>
-    <t xml:space="preserve">テキストボックスタイトル「説明」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">説明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テキストボックス「説明」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージオブジェクトより</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・イメージエンティティを取得して表示
+    <t>テキストボックスタイトル「説明」</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>テキストボックス「説明」</t>
+  </si>
+  <si>
+    <t>イメージオブジェクトより</t>
+  </si>
+  <si>
+    <t>・イメージエンティティを取得して表示
 ・編集ボタン押下後、入力が可能になり、
 表示が更新される</t>
   </si>
   <si>
-    <t xml:space="preserve">タイトル「サイズ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">情報表示「サイズ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージエンティティを取得して表示する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイトル「登録日」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">情報表示「登録日」</t>
+    <t>タイトル「サイズ」</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>情報表示「サイズ」</t>
+  </si>
+  <si>
+    <t>イメージエンティティを取得して表示する</t>
+  </si>
+  <si>
+    <t>タイトル「登録日」</t>
+  </si>
+  <si>
+    <t>登録日</t>
+  </si>
+  <si>
+    <t>情報表示「登録日」</t>
+  </si>
+  <si>
+    <t>image_dashboardへ遷移する</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージ編集</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,28 +182,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -210,7 +203,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -236,23 +229,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -282,318 +262,336 @@
     </fill>
   </fills>
   <borders count="15">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="double"/>
-      <bottom style="double"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="文字" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="文字" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -606,9 +604,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Text Box 1"/>
+        <xdr:cNvPr id="2" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -630,15 +634,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="27360" tIns="18360" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="27360" tIns="18360" rIns="27360" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
@@ -646,9 +657,9 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="ja-JP" sz="1000" strike="noStrike" u="none">
+            <a:rPr lang="ja-JP" sz="1000" b="1" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:effectLst/>
               <a:uFillTx/>
@@ -657,7 +668,7 @@
             </a:rPr>
             <a:t>タイトル</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -667,7 +678,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476280</xdr:colOff>
@@ -680,9 +691,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Text Box 2"/>
+        <xdr:cNvPr id="3" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -699,15 +716,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="0" tIns="18360" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="27360" tIns="18360" rIns="0" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -715,7 +739,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" strike="noStrike" u="none">
+            <a:rPr lang="ja-JP" sz="1100" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -726,7 +750,7 @@
             </a:rPr>
             <a:t>画面項目定義</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -736,7 +760,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
@@ -749,9 +773,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 3"/>
+        <xdr:cNvPr id="4" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -768,15 +798,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" rIns="27360" tIns="23040" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="23040" rIns="27360" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="r">
             <a:lnSpc>
@@ -784,9 +821,9 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:effectLst/>
               <a:uFillTx/>
@@ -794,7 +831,7 @@
             </a:rPr>
             <a:t>All Rights Reserved,Copyright © 2025 KATAYANAGI INSTITUTE</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -808,54 +845,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -887,7 +924,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -911,7 +948,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -971,91 +1008,90 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.5"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="13">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="13">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="13">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="13">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1064,16 +1100,16 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:7" ht="13">
+      <c r="A7" s="6"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="17"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
@@ -1096,8 +1132,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+    <row r="9" spans="1:7" ht="13">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -1108,210 +1144,210 @@
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="27" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="n">
+    <row r="10" spans="1:7" ht="24">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13">
+      <c r="A11" s="23">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="0" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="13">
+      <c r="A12" s="30">
+        <v>4</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24">
+      <c r="A13" s="23">
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="n">
+    <row r="14" spans="1:7" ht="36">
+      <c r="A14" s="30">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="G14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="35" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="24">
+      <c r="A15" s="23">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="n">
+    <row r="16" spans="1:7" ht="36">
+      <c r="A16" s="30">
         <v>8</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13">
+      <c r="A17" s="23">
         <v>9</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="n">
+    <row r="18" spans="1:7" ht="13">
+      <c r="A18" s="30">
         <v>10</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13">
+      <c r="A19" s="23">
         <v>11</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="n">
+    <row r="20" spans="1:7" ht="13">
+      <c r="A20" s="30">
         <v>12</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13">
+      <c r="A21" s="23">
         <v>13</v>
       </c>
       <c r="B21" s="36"/>
@@ -1321,8 +1357,8 @@
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="n">
+    <row r="22" spans="1:7" ht="13">
+      <c r="A22" s="30">
         <v>14</v>
       </c>
       <c r="B22" s="36"/>
@@ -1332,8 +1368,8 @@
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="n">
+    <row r="23" spans="1:7" ht="13">
+      <c r="A23" s="23">
         <v>15</v>
       </c>
       <c r="B23" s="36"/>
@@ -1343,8 +1379,8 @@
       <c r="F23" s="36"/>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="n">
+    <row r="24" spans="1:7" ht="13">
+      <c r="A24" s="30">
         <v>16</v>
       </c>
       <c r="B24" s="36"/>
@@ -1354,8 +1390,8 @@
       <c r="F24" s="28"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="n">
+    <row r="25" spans="1:7" ht="13">
+      <c r="A25" s="23">
         <v>17</v>
       </c>
       <c r="B25" s="36"/>
@@ -1365,7 +1401,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="30"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -1374,7 +1410,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="30"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -1383,7 +1419,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="30"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -1392,7 +1428,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -1406,13 +1442,9 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>